--- a/APF/APF訊息提示/APF訊息提示.xlsx
+++ b/APF/APF訊息提示/APF訊息提示.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="600" windowWidth="14805" windowHeight="7515"/>
+    <workbookView xWindow="240" yWindow="690" windowWidth="14805" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="訊息1" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="109">
   <si>
     <t>輸入日期內容錯誤-請輸入正確的日期</t>
   </si>
@@ -296,10 +296,6 @@
     <t>●</t>
   </si>
   <si>
-    <t>三代系統維護中請洽系統管理人員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$A欄位必需填寫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,13 +398,67 @@
   </si>
   <si>
     <t>功能已開啟</t>
+  </si>
+  <si>
+    <t>帳號操作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>請立即更新密碼，以確保資訊安全</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>請務必完成密碼更新，以確保資訊安全</t>
+  </si>
+  <si>
+    <t>是否將選取的帳號還原密碼為預設值?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除資料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否將此角色內所有帳號清除</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增資料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>此功能清單為實際執行層，無法新增子功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增/修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否將所有欄位清除</t>
+  </si>
+  <si>
+    <t>回上一頁前，尚未儲存，放棄所做輸入或設定?  (Y/N)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統忙碌中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -469,8 +519,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +537,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -600,6 +663,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -901,11 +977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B41" sqref="B41"/>
+      <selection pane="topRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -939,7 +1015,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>29</v>
@@ -948,13 +1024,13 @@
         <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>66</v>
@@ -1176,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>65</v>
@@ -1394,7 +1470,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="6" t="s">
@@ -1502,13 +1578,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>65</v>
@@ -1956,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>65</v>
@@ -2030,7 +2106,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>65</v>
@@ -2326,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>65</v>
@@ -2400,7 +2476,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>65</v>
@@ -2704,7 +2780,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>65</v>
@@ -2778,7 +2854,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="4"/>
       <c r="D26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>65</v>
@@ -2926,7 +3002,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="4"/>
       <c r="D28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>65</v>
@@ -3000,7 +3076,7 @@
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>65</v>
@@ -3078,7 +3154,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>65</v>
@@ -3152,7 +3228,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>65</v>
@@ -3226,7 +3302,7 @@
       <c r="B32" s="8"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>65</v>
@@ -3300,7 +3376,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>65</v>
@@ -3374,7 +3450,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
       <c r="D34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>65</v>
@@ -3452,7 +3528,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>65</v>
@@ -3528,7 +3604,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>65</v>
@@ -3606,7 +3682,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
@@ -3648,7 +3724,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
@@ -3686,13 +3762,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>17</v>
@@ -3724,13 +3800,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3762,13 +3838,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -3795,6 +3871,254 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="14"/>
     </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>41</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="14"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="14"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <v>43</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="14"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="14"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>45</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="14"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="14"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="29">
+        <v>47</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
